--- a/demomilk/uploads/Supplier_Master.xlsx
+++ b/demomilk/uploads/Supplier_Master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Address</t>
   </si>
@@ -48,7 +48,16 @@
     <t>raghu</t>
   </si>
   <si>
-    <t>swapnil</t>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>manish</t>
+  </si>
+  <si>
+    <t>shard</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,24 +442,50 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>9175534865</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>9652458145</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>545645</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>8237175481</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>

--- a/demomilk/uploads/Supplier_Master.xlsx
+++ b/demomilk/uploads/Supplier_Master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Address</t>
   </si>
@@ -48,16 +48,7 @@
     <t>raghu</t>
   </si>
   <si>
-    <t>sumit</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>manish</t>
-  </si>
-  <si>
-    <t>shard</t>
+    <t>swapnil</t>
   </si>
 </sst>
 </file>
@@ -396,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,50 +433,24 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>9175534865</v>
+        <v>545645</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>9652458145</v>
+        <v>8237175481</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>545645</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>8237175481</v>
-      </c>
-      <c r="H3">
         <v>1</v>
       </c>
     </row>
